--- a/biology/Zoologie/Coreini/Coreini.xlsx
+++ b/biology/Zoologie/Coreini/Coreini.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Coreini sont une tribu d'insectes hémiptères du sous-ordre des hétéroptères (punaises), de la famille des Coreidae et de la sous-famille des Coreinae.
 </t>
@@ -511,21 +523,91 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>La tribu a été décrite par l'entomologiste britannique William Elford Leach en 1815[1].
-Le genre type pour cette tribu est Coreus (Fabricius, 1794).
-Synonymie
-Corearia (Leach, 1815) [2]
-Coreida (Leach, 1815) [3]
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>La tribu a été décrite par l'entomologiste britannique William Elford Leach en 1815.
+Le genre type pour cette tribu est Coreus (Fabricius, 1794).</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Coreini</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Coreini</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Synonymie</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Corearia (Leach, 1815) 
+Coreida (Leach, 1815) 
 Syromastides (Amyot &amp; Serville, 1843)
-Syromastini (Syromastoidae) Amyot &amp; Serville, 1843 [4]
-Spathocerini (Spathocériens) Mulsant &amp; Rey. 1870[5]* Atractaria Stål, 1872 [6]
-Atractini Stål, 1872 [6]
-Centroscelini (Centroscelidae) Lethierry &amp; Severin. 1894[7]
-Spathoceraria Oshanin. 1906[8]
-Taxinomie
-Liste des genres
+Syromastini (Syromastoidae) Amyot &amp; Serville, 1843 
+Spathocerini (Spathocériens) Mulsant &amp; Rey. 1870* Atractaria Stål, 1872 
+Atractini Stål, 1872 
+Centroscelini (Centroscelidae) Lethierry &amp; Severin. 1894
+Spathoceraria Oshanin. 1906</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Coreini</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Coreini</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Liste des genres
 Centrocoris Kolenati, 1845
 Centroplax Horváth, 1932
 Cercinthinus Kiritshenko, 1916
